--- a/导表工具/Z-组队副本配置.xlsx
+++ b/导表工具/Z-组队副本配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="7455"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="263">
   <si>
     <t>导出类型</t>
   </si>
@@ -966,12 +966,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,7 +1041,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,8 +1071,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1071,8 +1116,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,23 +1154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,7 +1163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,63 +1178,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1229,7 +1240,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,37 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,91 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,37 +1420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,25 +1488,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1516,17 +1514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,19 +1541,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,8 +1580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,145 +1591,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1870,7 +1881,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2151,8 +2162,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3052,7 +3063,7 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/导表工具/Z-组队副本配置.xlsx
+++ b/导表工具/Z-组队副本配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="19440" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>导出类型</t>
   </si>
@@ -966,12 +966,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,7 +1041,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,63 +1162,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,75 +1177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1240,7 +1229,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1301,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,163 +1403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,12 +1477,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1514,11 +1516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,38 +1549,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,8 +1569,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,10 +1580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,133 +1592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1881,7 +1870,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2162,8 +2151,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3063,7 +3052,7 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
